--- a/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PE-H-9-1" sheetId="1" r:id="rId1"/>
-    <sheet name="PE-H-9-2" sheetId="2" r:id="rId4"/>
-    <sheet name="PE-H-9-3" sheetId="3" r:id="rId5"/>
-    <sheet name="PE-H-9-4" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 PE-H-9-1  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 PE-H-9-2  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 PE-H-9-3  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 PE-H-9-4  0-1-0-600 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PE-H-9-1</a:t>
+              <a:t>Izoterma adsorpcji probki PE-H-9-1 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PE-H-9-1'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 PE-H-9-1  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PE-H-9-1'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 PE-H-9-1  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PE-H-9-2</a:t>
+              <a:t>Izoterma adsorpcji probki PE-H-9-2 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PE-H-9-2'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 PE-H-9-2  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PE-H-9-2'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 PE-H-9-2  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PE-H-9-3</a:t>
+              <a:t>Izoterma adsorpcji probki PE-H-9-3 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PE-H-9-3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 PE-H-9-3  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PE-H-9-3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 PE-H-9-3  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PE-H-9-4</a:t>
+              <a:t>Izoterma adsorpcji probki PE-H-9-4 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PE-H-9-4'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 PE-H-9-4  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PE-H-9-4'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 PE-H-9-4  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,405 +4034,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9978</v>
       </c>
       <c r="B3" s="0">
-        <v>227.4117</v>
+        <v>272.2442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9792</v>
       </c>
       <c r="B4" s="0">
-        <v>232.6951</v>
+        <v>271.4442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9561</v>
       </c>
       <c r="B5" s="0">
-        <v>235.4821</v>
+        <v>269.8325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9024</v>
       </c>
       <c r="B6" s="0">
-        <v>237.5448</v>
+        <v>268.2459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.8509</v>
       </c>
       <c r="B7" s="0">
-        <v>239.1006</v>
+        <v>265.8422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8059</v>
       </c>
       <c r="B8" s="0">
-        <v>240.9017</v>
+        <v>262.618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7555</v>
       </c>
       <c r="B9" s="0">
-        <v>242.0101</v>
+        <v>260.2135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.7105</v>
       </c>
       <c r="B10" s="0">
-        <v>242.6852</v>
+        <v>259.4349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6579</v>
       </c>
       <c r="B11" s="0">
-        <v>243.813</v>
+        <v>257.8474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6096</v>
       </c>
       <c r="B12" s="0">
-        <v>244.6162</v>
+        <v>256.2563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5592</v>
       </c>
       <c r="B13" s="0">
-        <v>245.4398</v>
+        <v>255.4822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5099</v>
       </c>
       <c r="B14" s="0">
-        <v>246.4165</v>
+        <v>253.8919</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4594</v>
       </c>
       <c r="B15" s="0">
-        <v>247.1284</v>
+        <v>252.3026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4112</v>
       </c>
       <c r="B16" s="0">
-        <v>247.8023</v>
+        <v>250.7115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3586</v>
       </c>
       <c r="B17" s="0">
-        <v>248.2233</v>
+        <v>249.9392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.3081</v>
       </c>
       <c r="B18" s="0">
-        <v>248.5817</v>
+        <v>247.5347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2599</v>
       </c>
       <c r="B19" s="0">
-        <v>249.402</v>
+        <v>246.7588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.2094</v>
       </c>
       <c r="B20" s="0">
-        <v>250.0951</v>
+        <v>245.1695</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.1557</v>
       </c>
       <c r="B21" s="0">
-        <v>250.841</v>
+        <v>241.9524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.1064</v>
       </c>
       <c r="B22" s="0">
-        <v>251.1046</v>
+        <v>237.9165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.0757</v>
       </c>
       <c r="B23" s="0">
-        <v>250.786</v>
+        <v>234.6807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.0406</v>
       </c>
       <c r="B24" s="0">
-        <v>251.5676</v>
+        <v>228.1876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.0252</v>
       </c>
       <c r="B25" s="0">
-        <v>252.2328</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>252.7216</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>254.1901</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>255.5643</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>256.244</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>257.5075</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>257.5449</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>257.1167</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>257.2805</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>257.1459</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>258.6728</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>259.0855</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>259.6586</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>261.127</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>261.9108</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>263.0561</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>263.2787</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>264.7967</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>265.9578</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>266.03</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>267.3424</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>267.7223</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>268.2817</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>268.7755</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>269.0489</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>270.1401</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9978</v>
-      </c>
-      <c r="B51" s="0">
-        <v>272.2442</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0252</v>
-      </c>
-      <c r="B52" s="0">
         <v>224.124</v>
       </c>
     </row>
-    <row r="53"/>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4441,7 +4225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4462,397 +4246,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9934</v>
       </c>
       <c r="B3" s="0">
-        <v>321.0319</v>
+        <v>420.6173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9748</v>
       </c>
       <c r="B4" s="0">
-        <v>333.6737</v>
+        <v>418.1869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9539</v>
       </c>
       <c r="B5" s="0">
-        <v>343.3951</v>
+        <v>418.2038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9068</v>
       </c>
       <c r="B6" s="0">
-        <v>350.1657</v>
+        <v>413.351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.8509</v>
       </c>
       <c r="B7" s="0">
-        <v>355.4109</v>
+        <v>409.3205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8015</v>
       </c>
       <c r="B8" s="0">
-        <v>359.1457</v>
+        <v>403.6542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7533</v>
       </c>
       <c r="B9" s="0">
-        <v>361.9027</v>
+        <v>399.6174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.7061</v>
       </c>
       <c r="B10" s="0">
-        <v>364.331</v>
+        <v>396.395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6568</v>
       </c>
       <c r="B11" s="0">
-        <v>366.2604</v>
+        <v>391.5439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6042</v>
       </c>
       <c r="B12" s="0">
-        <v>367.9715</v>
+        <v>388.3259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5592</v>
       </c>
       <c r="B13" s="0">
-        <v>369.4141</v>
+        <v>386.7322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5055</v>
       </c>
       <c r="B14" s="0">
-        <v>370.4216</v>
+        <v>382.6999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4529</v>
       </c>
       <c r="B15" s="0">
-        <v>371.0016</v>
+        <v>380.2971</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.3575</v>
       </c>
       <c r="B16" s="0">
-        <v>371.538</v>
+        <v>375.4836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3048</v>
       </c>
       <c r="B17" s="0">
-        <v>372.0471</v>
+        <v>373.8961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.2599</v>
       </c>
       <c r="B18" s="0">
-        <v>372.6922</v>
+        <v>369.8566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2029</v>
       </c>
       <c r="B19" s="0">
-        <v>373.8052</v>
+        <v>365.827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.1579</v>
       </c>
       <c r="B20" s="0">
-        <v>375.1892</v>
+        <v>360.1571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.0768</v>
       </c>
       <c r="B21" s="0">
-        <v>376.523</v>
+        <v>343.9189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.0625</v>
       </c>
       <c r="B22" s="0">
-        <v>377.5187</v>
+        <v>337.4088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.0406</v>
       </c>
       <c r="B23" s="0">
-        <v>378.3172</v>
+        <v>326.0137</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.0296</v>
       </c>
       <c r="B24" s="0">
-        <v>379.2393</v>
+        <v>315.4248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.0219</v>
       </c>
       <c r="B25" s="0">
-        <v>380.3351</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="0">
-        <v>381.6797</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>383.2171</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>384.8476</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>386.5659</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>388.2498</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>389.5493</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>390.3291</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>390.972</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>391.8969</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>393.4975</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>395.8816</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>398.5403</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>401.0235</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>403.0697</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>404.6108</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>405.95</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>407.3853</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>408.9331</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>410.5614</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>412.1571</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>413.6144</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>414.9113</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>416.032</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>417.1188</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>417.7919</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9956</v>
-      </c>
-      <c r="B51" s="0">
-        <v>419.8003</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>308.0941</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4861,7 +4437,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4882,405 +4458,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.9912</v>
       </c>
       <c r="B3" s="0">
-        <v>316.9824</v>
+        <v>446.7061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.9737</v>
       </c>
       <c r="B4" s="0">
-        <v>328.5152</v>
+        <v>443.4595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.9561</v>
       </c>
       <c r="B5" s="0">
-        <v>336.6489</v>
+        <v>441.0281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.9035</v>
       </c>
       <c r="B6" s="0">
-        <v>343.8498</v>
+        <v>436.1797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.8531</v>
       </c>
       <c r="B7" s="0">
-        <v>350.1415</v>
+        <v>429.6991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.8037</v>
       </c>
       <c r="B8" s="0">
-        <v>354.6122</v>
+        <v>420.772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.7533</v>
       </c>
       <c r="B9" s="0">
-        <v>358.8851</v>
+        <v>413.4761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.6985</v>
       </c>
       <c r="B10" s="0">
-        <v>362.0864</v>
+        <v>406.9991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.6557</v>
       </c>
       <c r="B11" s="0">
-        <v>364.7318</v>
+        <v>402.9578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.6009</v>
       </c>
       <c r="B12" s="0">
-        <v>367.2572</v>
+        <v>397.296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.5515</v>
       </c>
       <c r="B13" s="0">
-        <v>369.5609</v>
+        <v>394.0754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.5022</v>
       </c>
       <c r="B14" s="0">
-        <v>371.7174</v>
+        <v>390.0395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.4068</v>
       </c>
       <c r="B15" s="0">
-        <v>373.3852</v>
+        <v>382.7803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.3564</v>
       </c>
       <c r="B16" s="0">
-        <v>375.1779</v>
+        <v>378.7454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.3048</v>
       </c>
       <c r="B17" s="0">
-        <v>376.2378</v>
+        <v>374.7113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.2061</v>
       </c>
       <c r="B18" s="0">
-        <v>377.376</v>
+        <v>362.5635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.0746</v>
       </c>
       <c r="B19" s="0">
-        <v>377.9646</v>
+        <v>325.1707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.0603</v>
       </c>
       <c r="B20" s="0">
-        <v>378.9292</v>
+        <v>317.8454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.045</v>
       </c>
       <c r="B21" s="0">
-        <v>381.4064</v>
+        <v>304.8144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.0395</v>
       </c>
       <c r="B22" s="0">
-        <v>381.9973</v>
+        <v>298.2972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.0296</v>
       </c>
       <c r="B23" s="0">
-        <v>383.9177</v>
+        <v>291.7835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.0241</v>
       </c>
       <c r="B24" s="0">
-        <v>387.4294</v>
+        <v>284.451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.0175</v>
       </c>
       <c r="B25" s="0">
-        <v>388.7837</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B26" s="0">
-        <v>390.7517</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B27" s="0">
-        <v>392.7856</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B28" s="0">
-        <v>394.2623</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B29" s="0">
-        <v>396.1514</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="0">
-        <v>397.4102</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B31" s="0">
-        <v>398.9074</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B32" s="0">
-        <v>400.6297</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>402.0678</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>404.2936</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>406.4153</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>408.6706</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>412.6465</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>417.2825</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>420.7145</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>421.6444</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>423.3455</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>426.7569</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>429.3169</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>432.0043</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>434.1206</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>435.8462</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>437.8137</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>439.8645</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>444.3098</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9934</v>
-      </c>
-      <c r="B50" s="0">
-        <v>445.8891</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.045</v>
-      </c>
-      <c r="B51" s="0">
-        <v>304.8144</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0285</v>
-      </c>
-      <c r="B52" s="0">
-        <v>286.8931</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>277.9346</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5289,7 +4649,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5310,317 +4670,413 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.002</v>
+        <v>0.9923</v>
       </c>
       <c r="B3" s="0">
-        <v>216.5591</v>
+        <v>555.1291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0002</v>
+        <v>0.9759</v>
       </c>
       <c r="B4" s="0">
-        <v>178.1073</v>
+        <v>547.8055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0015</v>
+        <v>0.9507</v>
       </c>
       <c r="B5" s="0">
-        <v>139.0069</v>
+        <v>542.1196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0008</v>
+        <v>0.9013</v>
       </c>
       <c r="B6" s="0">
-        <v>103.1782</v>
+        <v>532.3772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0012</v>
+        <v>0.8553</v>
       </c>
       <c r="B7" s="0">
-        <v>73.7442</v>
+        <v>521.8169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0012</v>
+        <v>0.8015</v>
       </c>
       <c r="B8" s="0">
-        <v>45.577</v>
+        <v>508.8172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0011</v>
+        <v>0.7511</v>
       </c>
       <c r="B9" s="0">
-        <v>18.6083</v>
+        <v>499.0757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0028</v>
+        <v>0.7061</v>
       </c>
       <c r="B10" s="0">
-        <v>256.5848</v>
+        <v>490.9602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0106</v>
+        <v>0.6524</v>
       </c>
       <c r="B11" s="0">
-        <v>286.4514</v>
+        <v>482.8518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0245</v>
+        <v>0.6009</v>
       </c>
       <c r="B12" s="0">
-        <v>318.0497</v>
+        <v>476.3721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.039</v>
+        <v>0.5559</v>
       </c>
       <c r="B13" s="0">
-        <v>341.5986</v>
+        <v>470.7022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0662</v>
+        <v>0.5011</v>
       </c>
       <c r="B14" s="0">
-        <v>370.1021</v>
+        <v>464.2252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1003</v>
+        <v>0.4529</v>
       </c>
       <c r="B15" s="0">
-        <v>392.0668</v>
+        <v>460.1884</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1355</v>
+        <v>0.4035</v>
       </c>
       <c r="B16" s="0">
-        <v>408.8411</v>
+        <v>454.5221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1708</v>
+        <v>0.3575</v>
       </c>
       <c r="B17" s="0">
-        <v>419.1376</v>
+        <v>450.4836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.206</v>
+        <v>0.3004</v>
       </c>
       <c r="B18" s="0">
-        <v>429.0601</v>
+        <v>444.8235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2413</v>
+        <v>0.2588</v>
       </c>
       <c r="B19" s="0">
-        <v>434.2315</v>
+        <v>438.3358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2765</v>
+        <v>0.2094</v>
       </c>
       <c r="B20" s="0">
-        <v>439.3272</v>
+        <v>429.4086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3117</v>
+        <v>0.1546</v>
       </c>
       <c r="B21" s="0">
-        <v>444.2364</v>
+        <v>416.4098</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.347</v>
+        <v>0.1371</v>
       </c>
       <c r="B22" s="0">
-        <v>447.9483</v>
+        <v>410.7176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3822</v>
+        <v>0.0932</v>
       </c>
       <c r="B23" s="0">
-        <v>451.9143</v>
+        <v>390.3729</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4175</v>
+        <v>0.0746</v>
       </c>
       <c r="B24" s="0">
-        <v>456.2097</v>
+        <v>377.3446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4527</v>
+        <v>0.0647</v>
       </c>
       <c r="B25" s="0">
-        <v>460.1123</v>
+        <v>370.8309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4889</v>
+        <v>0.0559</v>
       </c>
       <c r="B26" s="0">
-        <v>464.2208</v>
+        <v>361.8707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5213</v>
+        <v>0.0439</v>
       </c>
       <c r="B27" s="0">
-        <v>466.828</v>
+        <v>349.6523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5584</v>
+        <v>0.0307</v>
       </c>
       <c r="B28" s="0">
-        <v>471.3622</v>
+        <v>334.1739</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5955</v>
+        <v>0.0208</v>
       </c>
       <c r="B29" s="0">
-        <v>474.9451</v>
+        <v>317.0624</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6296</v>
+        <v>0.011</v>
       </c>
       <c r="B30" s="0">
-        <v>480.226</v>
+        <v>295.0595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6618</v>
+        <v>0.0066</v>
       </c>
       <c r="B31" s="0">
-        <v>483.5237</v>
+        <v>283.6501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7009</v>
+        <v>0.0055</v>
       </c>
       <c r="B32" s="0">
-        <v>490.0057</v>
+        <v>272.2379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7376</v>
+        <v>0.0044</v>
       </c>
       <c r="B33" s="0">
-        <v>496.5616</v>
+        <v>262.4562</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7699</v>
+        <v>0.0033</v>
       </c>
       <c r="B34" s="0">
-        <v>502.172</v>
+        <v>245.3375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8056</v>
+        <v>0.0022</v>
       </c>
       <c r="B35" s="0">
-        <v>509.8038</v>
+        <v>231.4797</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8433</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>519.4637</v>
+        <v>219.2533</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8781</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>528.7107</v>
+        <v>207.025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.913</v>
+        <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>534.7647</v>
+        <v>193.1663</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9482</v>
+        <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>541.3171</v>
+        <v>183.3837</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9835</v>
+        <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>550.5332</v>
+        <v>170.3402</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.0033</v>
+        <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>553.9711</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>158.9272</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B42" s="0">
+        <v>146.6998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B43" s="0">
+        <v>134.4715</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B44" s="0">
+        <v>123.8737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0</v>
+      </c>
+      <c r="B45" s="0">
+        <v>112.4598</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B46" s="0">
+        <v>100.2324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0</v>
+      </c>
+      <c r="B47" s="0">
+        <v>87.188</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B48" s="0">
+        <v>74.9607</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B49" s="0">
+        <v>61.9172</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B50" s="0">
+        <v>50.5041</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0</v>
+      </c>
+      <c r="B51" s="0">
+        <v>35.8293</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0</v>
+      </c>
+      <c r="B52" s="0">
+        <v>24.4163</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0">
+        <v>13.0033</v>
+      </c>
+    </row>
+    <row r="54"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 84 Activated Carbons from Thermoplastic/Data84_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 6 PE-H-9-1  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 6 PE-H-9-2  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 6 PE-H-9-3  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 6 PE-H-9-4  0-1-0-600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 PE-H-9-1  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 PE-H-9-2  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 PE-H-9-3  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 PE-H-9-4  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-1  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 PE-H-9-1  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-1  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 PE-H-9-1  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-2  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 PE-H-9-2  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-2  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 PE-H-9-2  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-3  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 PE-H-9-3  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-3  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 PE-H-9-3  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-4  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 PE-H-9-4  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 PE-H-9-4  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 PE-H-9-4  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
